--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cdh1-Egfr.xlsx
@@ -531,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H2">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I2">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J2">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>0.3923290723683334</v>
+        <v>0.1979184427898889</v>
       </c>
       <c r="R2">
-        <v>3.530961651315</v>
+        <v>1.781265985109</v>
       </c>
       <c r="S2">
-        <v>0.01162778069448682</v>
+        <v>0.008139259527623227</v>
       </c>
       <c r="T2">
-        <v>0.01162778069448682</v>
+        <v>0.008139259527623226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H3">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J3">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>19.65561964154367</v>
+        <v>13.41429506565922</v>
       </c>
       <c r="R3">
-        <v>176.900576773893</v>
+        <v>120.728655590933</v>
       </c>
       <c r="S3">
-        <v>0.5825498304941952</v>
+        <v>0.5516536376320657</v>
       </c>
       <c r="T3">
-        <v>0.5825498304941953</v>
+        <v>0.5516536376320655</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H4">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I4">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J4">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>3.675521588608334</v>
+        <v>4.290566502854667</v>
       </c>
       <c r="R4">
-        <v>33.079694297475</v>
+        <v>38.615098525692</v>
       </c>
       <c r="S4">
-        <v>0.1089344684863561</v>
+        <v>0.1764465897922121</v>
       </c>
       <c r="T4">
-        <v>0.1089344684863561</v>
+        <v>0.176446589792212</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.211547</v>
+        <v>0.1443736666666667</v>
       </c>
       <c r="H5">
-        <v>0.634641</v>
+        <v>0.433121</v>
       </c>
       <c r="I5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="J5">
-        <v>0.7041286388539399</v>
+        <v>0.7378778224885942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.03429938439200001</v>
+        <v>0.03983861395366667</v>
       </c>
       <c r="R5">
-        <v>0.3086944595280001</v>
+        <v>0.358547525583</v>
       </c>
       <c r="S5">
-        <v>0.001016559178901857</v>
+        <v>0.001638335536693352</v>
       </c>
       <c r="T5">
-        <v>0.001016559178901857</v>
+        <v>0.001638335536693351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H6">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J6">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>0.1648547300216667</v>
+        <v>0.07030813450766667</v>
       </c>
       <c r="R6">
-        <v>1.483692570195</v>
+        <v>0.632773210569</v>
       </c>
       <c r="S6">
-        <v>0.004885935767057098</v>
+        <v>0.002891373565769467</v>
       </c>
       <c r="T6">
-        <v>0.004885935767057099</v>
+        <v>0.002891373565769467</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H7">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J7">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
-        <v>8.259193869714334</v>
+        <v>4.765266179883667</v>
       </c>
       <c r="R7">
-        <v>74.332744827429</v>
+        <v>42.887395618953</v>
       </c>
       <c r="S7">
-        <v>0.2447845489771044</v>
+        <v>0.1959682867829249</v>
       </c>
       <c r="T7">
-        <v>0.2447845489771044</v>
+        <v>0.1959682867829249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H8">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J8">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>1.544435938741667</v>
+        <v>1.524171888908</v>
       </c>
       <c r="R8">
-        <v>13.899923448675</v>
+        <v>13.717547000172</v>
       </c>
       <c r="S8">
-        <v>0.04577372327766727</v>
+        <v>0.06268051826630326</v>
       </c>
       <c r="T8">
-        <v>0.04577372327766727</v>
+        <v>0.06268051826630326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.088891</v>
+        <v>0.051287</v>
       </c>
       <c r="H9">
-        <v>0.266673</v>
+        <v>0.153861</v>
       </c>
       <c r="I9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="J9">
-        <v>0.2958713611460601</v>
+        <v>0.2621221775114058</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>0.014412431176</v>
+        <v>0.014152186067</v>
       </c>
       <c r="R9">
-        <v>0.129711880584</v>
+        <v>0.127369674603</v>
       </c>
       <c r="S9">
-        <v>0.0004271531242313292</v>
+        <v>0.0005819988964081071</v>
       </c>
       <c r="T9">
-        <v>0.0004271531242313292</v>
+        <v>0.0005819988964081071</v>
       </c>
     </row>
   </sheetData>
